--- a/4.final-project/students/pm/suzanna/data/assets/breach_report_pivot_tables.xlsx
+++ b/4.final-project/students/pm/suzanna/data/assets/breach_report_pivot_tables.xlsx
@@ -2,36 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmeelk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schmeelk\Desktop\suzanna\data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16890" windowHeight="6405" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16890" windowHeight="6405" tabRatio="658"/>
   </bookViews>
   <sheets>
     <sheet name="PivTab_CoveredEntity" sheetId="5" r:id="rId1"/>
-    <sheet name="CE_LocOfBreach" sheetId="8" r:id="rId2"/>
-    <sheet name="CE_byState" sheetId="9" r:id="rId3"/>
-    <sheet name="breach_report" sheetId="1" r:id="rId4"/>
+    <sheet name="CE_SumOfIndividualAffected" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
+    <sheet name="CE_LocOfBreach" sheetId="8" r:id="rId4"/>
+    <sheet name="CE_byState" sheetId="9" r:id="rId5"/>
+    <sheet name="breach_report" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
-    <pivotCache cacheId="14" r:id="rId7"/>
-    <pivotCache cacheId="20" r:id="rId8"/>
-    <pivotCache cacheId="26" r:id="rId9"/>
-    <pivotCache cacheId="33" r:id="rId10"/>
-    <pivotCache cacheId="39" r:id="rId11"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId9"/>
+    <pivotCache cacheId="10" r:id="rId10"/>
+    <pivotCache cacheId="11" r:id="rId11"/>
+    <pivotCache cacheId="12" r:id="rId12"/>
+    <pivotCache cacheId="13" r:id="rId13"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="506">
   <si>
     <t>Name of Covered Entity</t>
   </si>
@@ -1543,6 +1545,12 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Business Associate - No</t>
+  </si>
+  <si>
+    <t>Business Associate - Yes</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2087,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -35133,8 +35145,642 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D2:F8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A18:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Covered Entity Type" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A10:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Individuals Affected" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Name of Covered Entity" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D2:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="398">
+        <item x="256"/>
+        <item x="66"/>
+        <item x="348"/>
+        <item x="393"/>
+        <item x="114"/>
+        <item x="299"/>
+        <item x="282"/>
+        <item x="149"/>
+        <item x="349"/>
+        <item x="273"/>
+        <item x="247"/>
+        <item x="99"/>
+        <item x="86"/>
+        <item x="371"/>
+        <item x="330"/>
+        <item x="365"/>
+        <item x="391"/>
+        <item x="290"/>
+        <item x="117"/>
+        <item x="225"/>
+        <item x="363"/>
+        <item x="119"/>
+        <item x="157"/>
+        <item x="192"/>
+        <item x="187"/>
+        <item x="189"/>
+        <item x="215"/>
+        <item x="359"/>
+        <item x="72"/>
+        <item x="304"/>
+        <item x="151"/>
+        <item x="267"/>
+        <item x="69"/>
+        <item x="166"/>
+        <item x="217"/>
+        <item x="216"/>
+        <item x="167"/>
+        <item x="141"/>
+        <item x="101"/>
+        <item x="152"/>
+        <item x="362"/>
+        <item x="134"/>
+        <item x="43"/>
+        <item x="356"/>
+        <item x="255"/>
+        <item x="105"/>
+        <item x="326"/>
+        <item x="50"/>
+        <item x="89"/>
+        <item x="387"/>
+        <item x="295"/>
+        <item x="297"/>
+        <item x="268"/>
+        <item x="196"/>
+        <item x="228"/>
+        <item x="344"/>
+        <item x="162"/>
+        <item x="206"/>
+        <item x="182"/>
+        <item x="161"/>
+        <item x="144"/>
+        <item x="178"/>
+        <item x="212"/>
+        <item x="177"/>
+        <item x="56"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="288"/>
+        <item x="312"/>
+        <item x="271"/>
+        <item x="211"/>
+        <item x="184"/>
+        <item x="231"/>
+        <item x="77"/>
+        <item x="100"/>
+        <item x="318"/>
+        <item x="165"/>
+        <item x="376"/>
+        <item x="67"/>
+        <item x="103"/>
+        <item x="249"/>
+        <item x="203"/>
+        <item x="307"/>
+        <item x="120"/>
+        <item x="259"/>
+        <item x="130"/>
+        <item x="18"/>
+        <item x="235"/>
+        <item x="208"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="238"/>
+        <item x="265"/>
+        <item x="121"/>
+        <item x="343"/>
+        <item x="311"/>
+        <item x="170"/>
+        <item x="85"/>
+        <item x="289"/>
+        <item x="76"/>
+        <item x="78"/>
+        <item x="188"/>
+        <item x="350"/>
+        <item x="354"/>
+        <item x="1"/>
+        <item x="327"/>
+        <item x="59"/>
+        <item x="128"/>
+        <item x="6"/>
+        <item x="131"/>
+        <item x="240"/>
+        <item x="136"/>
+        <item x="336"/>
+        <item x="197"/>
+        <item x="147"/>
+        <item x="79"/>
+        <item x="22"/>
+        <item x="392"/>
+        <item x="21"/>
+        <item x="285"/>
+        <item x="236"/>
+        <item x="155"/>
+        <item x="324"/>
+        <item x="375"/>
+        <item x="258"/>
+        <item x="11"/>
+        <item x="342"/>
+        <item x="220"/>
+        <item x="175"/>
+        <item x="266"/>
+        <item x="389"/>
+        <item x="93"/>
+        <item x="126"/>
+        <item x="63"/>
+        <item x="94"/>
+        <item x="60"/>
+        <item x="226"/>
+        <item x="317"/>
+        <item x="62"/>
+        <item x="12"/>
+        <item x="233"/>
+        <item x="145"/>
+        <item x="221"/>
+        <item x="287"/>
+        <item x="168"/>
+        <item x="199"/>
+        <item x="264"/>
+        <item x="218"/>
+        <item x="33"/>
+        <item x="345"/>
+        <item x="243"/>
+        <item x="24"/>
+        <item x="107"/>
+        <item x="269"/>
+        <item x="73"/>
+        <item x="61"/>
+        <item x="41"/>
+        <item x="202"/>
+        <item x="132"/>
+        <item x="272"/>
+        <item x="158"/>
+        <item x="111"/>
+        <item x="26"/>
+        <item x="64"/>
+        <item x="135"/>
+        <item x="2"/>
+        <item x="137"/>
+        <item x="193"/>
+        <item x="244"/>
+        <item x="156"/>
+        <item x="112"/>
+        <item x="57"/>
+        <item x="385"/>
+        <item x="17"/>
+        <item x="361"/>
+        <item x="116"/>
+        <item x="179"/>
+        <item x="40"/>
+        <item x="306"/>
+        <item x="283"/>
+        <item x="15"/>
+        <item x="124"/>
+        <item x="0"/>
+        <item x="88"/>
+        <item x="195"/>
+        <item x="75"/>
+        <item x="293"/>
+        <item x="186"/>
+        <item x="84"/>
+        <item x="34"/>
+        <item x="52"/>
+        <item x="296"/>
+        <item x="219"/>
+        <item x="8"/>
+        <item x="80"/>
+        <item x="261"/>
+        <item x="315"/>
+        <item x="185"/>
+        <item x="173"/>
+        <item x="81"/>
+        <item x="65"/>
+        <item x="44"/>
+        <item x="159"/>
+        <item x="360"/>
+        <item x="254"/>
+        <item x="87"/>
+        <item x="394"/>
+        <item x="294"/>
+        <item x="139"/>
+        <item x="333"/>
+        <item x="316"/>
+        <item x="322"/>
+        <item x="133"/>
+        <item x="106"/>
+        <item x="171"/>
+        <item x="305"/>
+        <item x="314"/>
+        <item x="91"/>
+        <item x="174"/>
+        <item x="364"/>
+        <item x="222"/>
+        <item x="210"/>
+        <item x="300"/>
+        <item x="275"/>
+        <item x="334"/>
+        <item x="368"/>
+        <item x="291"/>
+        <item x="183"/>
+        <item x="357"/>
+        <item x="262"/>
+        <item x="257"/>
+        <item x="104"/>
+        <item x="204"/>
+        <item x="19"/>
+        <item x="253"/>
+        <item x="320"/>
+        <item x="301"/>
+        <item x="68"/>
+        <item x="190"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="352"/>
+        <item x="25"/>
+        <item x="209"/>
+        <item x="53"/>
+        <item x="308"/>
+        <item x="138"/>
+        <item x="102"/>
+        <item x="129"/>
+        <item x="29"/>
+        <item x="355"/>
+        <item x="374"/>
+        <item x="90"/>
+        <item x="328"/>
+        <item x="23"/>
+        <item x="205"/>
+        <item x="260"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="250"/>
+        <item x="246"/>
+        <item x="92"/>
+        <item x="160"/>
+        <item x="280"/>
+        <item x="109"/>
+        <item x="97"/>
+        <item x="248"/>
+        <item x="234"/>
+        <item x="339"/>
+        <item x="396"/>
+        <item x="251"/>
+        <item x="332"/>
+        <item x="36"/>
+        <item x="127"/>
+        <item x="347"/>
+        <item x="263"/>
+        <item x="113"/>
+        <item x="115"/>
+        <item x="329"/>
+        <item x="191"/>
+        <item x="55"/>
+        <item x="370"/>
+        <item x="213"/>
+        <item x="380"/>
+        <item x="337"/>
+        <item x="123"/>
+        <item x="274"/>
+        <item x="37"/>
+        <item x="341"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="239"/>
+        <item x="200"/>
+        <item x="390"/>
+        <item x="3"/>
+        <item x="35"/>
+        <item x="30"/>
+        <item x="54"/>
+        <item x="227"/>
+        <item x="298"/>
+        <item x="309"/>
+        <item x="140"/>
+        <item x="181"/>
+        <item x="49"/>
+        <item x="98"/>
+        <item x="241"/>
+        <item x="338"/>
+        <item x="95"/>
+        <item x="319"/>
+        <item x="122"/>
+        <item x="180"/>
+        <item x="381"/>
+        <item x="379"/>
+        <item x="284"/>
+        <item x="321"/>
+        <item x="46"/>
+        <item x="146"/>
+        <item x="270"/>
+        <item x="366"/>
+        <item x="9"/>
+        <item x="201"/>
+        <item x="346"/>
+        <item x="351"/>
+        <item x="39"/>
+        <item x="82"/>
+        <item x="325"/>
+        <item x="358"/>
+        <item x="279"/>
+        <item x="252"/>
+        <item x="83"/>
+        <item x="369"/>
+        <item x="382"/>
+        <item x="223"/>
+        <item x="118"/>
+        <item x="384"/>
+        <item x="96"/>
+        <item x="323"/>
+        <item x="386"/>
+        <item x="142"/>
+        <item x="286"/>
+        <item x="377"/>
+        <item x="281"/>
+        <item x="5"/>
+        <item x="340"/>
+        <item x="16"/>
+        <item x="276"/>
+        <item x="303"/>
+        <item x="313"/>
+        <item x="164"/>
+        <item x="108"/>
+        <item x="150"/>
+        <item x="38"/>
+        <item x="148"/>
+        <item x="331"/>
+        <item x="176"/>
+        <item x="28"/>
+        <item x="292"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="31"/>
+        <item x="237"/>
+        <item x="224"/>
+        <item x="58"/>
+        <item x="395"/>
+        <item x="214"/>
+        <item x="71"/>
+        <item x="383"/>
+        <item x="32"/>
+        <item x="27"/>
+        <item x="143"/>
+        <item x="310"/>
+        <item x="278"/>
+        <item x="163"/>
+        <item x="353"/>
+        <item x="125"/>
+        <item x="373"/>
+        <item x="110"/>
+        <item x="378"/>
+        <item x="194"/>
+        <item x="372"/>
+        <item x="302"/>
+        <item x="388"/>
+        <item x="172"/>
+        <item x="207"/>
+        <item x="232"/>
+        <item x="70"/>
+        <item x="277"/>
+        <item x="367"/>
+        <item x="42"/>
+        <item x="74"/>
+        <item x="14"/>
+        <item x="245"/>
+        <item x="198"/>
+        <item x="335"/>
+        <item x="169"/>
+        <item x="10"/>
+        <item x="242"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item sd="0" x="1"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Individuals Affected" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="398">
@@ -35604,643 +36250,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D10:E16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="398">
-        <item x="256"/>
-        <item x="66"/>
-        <item x="348"/>
-        <item x="393"/>
-        <item x="114"/>
-        <item x="299"/>
-        <item x="282"/>
-        <item x="149"/>
-        <item x="349"/>
-        <item x="273"/>
-        <item x="247"/>
-        <item x="99"/>
-        <item x="86"/>
-        <item x="371"/>
-        <item x="330"/>
-        <item x="365"/>
-        <item x="391"/>
-        <item x="290"/>
-        <item x="117"/>
-        <item x="225"/>
-        <item x="363"/>
-        <item x="119"/>
-        <item x="157"/>
-        <item x="192"/>
-        <item x="187"/>
-        <item x="189"/>
-        <item x="215"/>
-        <item x="359"/>
-        <item x="72"/>
-        <item x="304"/>
-        <item x="151"/>
-        <item x="267"/>
-        <item x="69"/>
-        <item x="166"/>
-        <item x="217"/>
-        <item x="216"/>
-        <item x="167"/>
-        <item x="141"/>
-        <item x="101"/>
-        <item x="152"/>
-        <item x="362"/>
-        <item x="134"/>
-        <item x="43"/>
-        <item x="356"/>
-        <item x="255"/>
-        <item x="105"/>
-        <item x="326"/>
-        <item x="50"/>
-        <item x="89"/>
-        <item x="387"/>
-        <item x="295"/>
-        <item x="297"/>
-        <item x="268"/>
-        <item x="196"/>
-        <item x="228"/>
-        <item x="344"/>
-        <item x="162"/>
-        <item x="206"/>
-        <item x="182"/>
-        <item x="161"/>
-        <item x="144"/>
-        <item x="178"/>
-        <item x="212"/>
-        <item x="177"/>
-        <item x="56"/>
-        <item x="13"/>
-        <item x="51"/>
-        <item x="288"/>
-        <item x="312"/>
-        <item x="271"/>
-        <item x="211"/>
-        <item x="184"/>
-        <item x="231"/>
-        <item x="77"/>
-        <item x="100"/>
-        <item x="318"/>
-        <item x="165"/>
-        <item x="376"/>
-        <item x="67"/>
-        <item x="103"/>
-        <item x="249"/>
-        <item x="203"/>
-        <item x="307"/>
-        <item x="120"/>
-        <item x="259"/>
-        <item x="130"/>
-        <item x="18"/>
-        <item x="235"/>
-        <item x="208"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="238"/>
-        <item x="265"/>
-        <item x="121"/>
-        <item x="343"/>
-        <item x="311"/>
-        <item x="170"/>
-        <item x="85"/>
-        <item x="289"/>
-        <item x="76"/>
-        <item x="78"/>
-        <item x="188"/>
-        <item x="350"/>
-        <item x="354"/>
-        <item x="1"/>
-        <item x="327"/>
-        <item x="59"/>
-        <item x="128"/>
-        <item x="6"/>
-        <item x="131"/>
-        <item x="240"/>
-        <item x="136"/>
-        <item x="336"/>
-        <item x="197"/>
-        <item x="147"/>
-        <item x="79"/>
-        <item x="22"/>
-        <item x="392"/>
-        <item x="21"/>
-        <item x="285"/>
-        <item x="236"/>
-        <item x="155"/>
-        <item x="324"/>
-        <item x="375"/>
-        <item x="258"/>
-        <item x="11"/>
-        <item x="342"/>
-        <item x="220"/>
-        <item x="175"/>
-        <item x="266"/>
-        <item x="389"/>
-        <item x="93"/>
-        <item x="126"/>
-        <item x="63"/>
-        <item x="94"/>
-        <item x="60"/>
-        <item x="226"/>
-        <item x="317"/>
-        <item x="62"/>
-        <item x="12"/>
-        <item x="233"/>
-        <item x="145"/>
-        <item x="221"/>
-        <item x="287"/>
-        <item x="168"/>
-        <item x="199"/>
-        <item x="264"/>
-        <item x="218"/>
-        <item x="33"/>
-        <item x="345"/>
-        <item x="243"/>
-        <item x="24"/>
-        <item x="107"/>
-        <item x="269"/>
-        <item x="73"/>
-        <item x="61"/>
-        <item x="41"/>
-        <item x="202"/>
-        <item x="132"/>
-        <item x="272"/>
-        <item x="158"/>
-        <item x="111"/>
-        <item x="26"/>
-        <item x="64"/>
-        <item x="135"/>
-        <item x="2"/>
-        <item x="137"/>
-        <item x="193"/>
-        <item x="244"/>
-        <item x="156"/>
-        <item x="112"/>
-        <item x="57"/>
-        <item x="385"/>
-        <item x="17"/>
-        <item x="361"/>
-        <item x="116"/>
-        <item x="179"/>
-        <item x="40"/>
-        <item x="306"/>
-        <item x="283"/>
-        <item x="15"/>
-        <item x="124"/>
-        <item x="0"/>
-        <item x="88"/>
-        <item x="195"/>
-        <item x="75"/>
-        <item x="293"/>
-        <item x="186"/>
-        <item x="84"/>
-        <item x="34"/>
-        <item x="52"/>
-        <item x="296"/>
-        <item x="219"/>
-        <item x="8"/>
-        <item x="80"/>
-        <item x="261"/>
-        <item x="315"/>
-        <item x="185"/>
-        <item x="173"/>
-        <item x="81"/>
-        <item x="65"/>
-        <item x="44"/>
-        <item x="159"/>
-        <item x="360"/>
-        <item x="254"/>
-        <item x="87"/>
-        <item x="394"/>
-        <item x="294"/>
-        <item x="139"/>
-        <item x="333"/>
-        <item x="316"/>
-        <item x="322"/>
-        <item x="133"/>
-        <item x="106"/>
-        <item x="171"/>
-        <item x="305"/>
-        <item x="314"/>
-        <item x="91"/>
-        <item x="174"/>
-        <item x="364"/>
-        <item x="222"/>
-        <item x="210"/>
-        <item x="300"/>
-        <item x="275"/>
-        <item x="334"/>
-        <item x="368"/>
-        <item x="291"/>
-        <item x="183"/>
-        <item x="357"/>
-        <item x="262"/>
-        <item x="257"/>
-        <item x="104"/>
-        <item x="204"/>
-        <item x="19"/>
-        <item x="253"/>
-        <item x="320"/>
-        <item x="301"/>
-        <item x="68"/>
-        <item x="190"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="352"/>
-        <item x="25"/>
-        <item x="209"/>
-        <item x="53"/>
-        <item x="308"/>
-        <item x="138"/>
-        <item x="102"/>
-        <item x="129"/>
-        <item x="29"/>
-        <item x="355"/>
-        <item x="374"/>
-        <item x="90"/>
-        <item x="328"/>
-        <item x="23"/>
-        <item x="205"/>
-        <item x="260"/>
-        <item x="47"/>
-        <item x="20"/>
-        <item x="250"/>
-        <item x="246"/>
-        <item x="92"/>
-        <item x="160"/>
-        <item x="280"/>
-        <item x="109"/>
-        <item x="97"/>
-        <item x="248"/>
-        <item x="234"/>
-        <item x="339"/>
-        <item x="396"/>
-        <item x="251"/>
-        <item x="332"/>
-        <item x="36"/>
-        <item x="127"/>
-        <item x="347"/>
-        <item x="263"/>
-        <item x="113"/>
-        <item x="115"/>
-        <item x="329"/>
-        <item x="191"/>
-        <item x="55"/>
-        <item x="370"/>
-        <item x="213"/>
-        <item x="380"/>
-        <item x="337"/>
-        <item x="123"/>
-        <item x="274"/>
-        <item x="37"/>
-        <item x="341"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="239"/>
-        <item x="200"/>
-        <item x="390"/>
-        <item x="3"/>
-        <item x="35"/>
-        <item x="30"/>
-        <item x="54"/>
-        <item x="227"/>
-        <item x="298"/>
-        <item x="309"/>
-        <item x="140"/>
-        <item x="181"/>
-        <item x="49"/>
-        <item x="98"/>
-        <item x="241"/>
-        <item x="338"/>
-        <item x="95"/>
-        <item x="319"/>
-        <item x="122"/>
-        <item x="180"/>
-        <item x="381"/>
-        <item x="379"/>
-        <item x="284"/>
-        <item x="321"/>
-        <item x="46"/>
-        <item x="146"/>
-        <item x="270"/>
-        <item x="366"/>
-        <item x="9"/>
-        <item x="201"/>
-        <item x="346"/>
-        <item x="351"/>
-        <item x="39"/>
-        <item x="82"/>
-        <item x="325"/>
-        <item x="358"/>
-        <item x="279"/>
-        <item x="252"/>
-        <item x="83"/>
-        <item x="369"/>
-        <item x="382"/>
-        <item x="223"/>
-        <item x="118"/>
-        <item x="384"/>
-        <item x="96"/>
-        <item x="323"/>
-        <item x="386"/>
-        <item x="142"/>
-        <item x="286"/>
-        <item x="377"/>
-        <item x="281"/>
-        <item x="5"/>
-        <item x="340"/>
-        <item x="16"/>
-        <item x="276"/>
-        <item x="303"/>
-        <item x="313"/>
-        <item x="164"/>
-        <item x="108"/>
-        <item x="150"/>
-        <item x="38"/>
-        <item x="148"/>
-        <item x="331"/>
-        <item x="176"/>
-        <item x="28"/>
-        <item x="292"/>
-        <item x="48"/>
-        <item x="45"/>
-        <item x="31"/>
-        <item x="237"/>
-        <item x="224"/>
-        <item x="58"/>
-        <item x="395"/>
-        <item x="214"/>
-        <item x="71"/>
-        <item x="383"/>
-        <item x="32"/>
-        <item x="27"/>
-        <item x="143"/>
-        <item x="310"/>
-        <item x="278"/>
-        <item x="163"/>
-        <item x="353"/>
-        <item x="125"/>
-        <item x="373"/>
-        <item x="110"/>
-        <item x="378"/>
-        <item x="194"/>
-        <item x="372"/>
-        <item x="302"/>
-        <item x="388"/>
-        <item x="172"/>
-        <item x="207"/>
-        <item x="232"/>
-        <item x="70"/>
-        <item x="277"/>
-        <item x="367"/>
-        <item x="42"/>
-        <item x="74"/>
-        <item x="14"/>
-        <item x="245"/>
-        <item x="198"/>
-        <item x="335"/>
-        <item x="169"/>
-        <item x="10"/>
-        <item x="242"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item sd="0" x="1"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="2"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="5"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Individuals Affected" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A18:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Covered Entity Type" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A10:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Individuals Affected" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Name of Covered Entity" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -36408,8 +36420,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable22" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable22" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -36474,8 +36486,8 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
-        <item x="0"/>
-        <item x="1"/>
+        <item n="Business Associate - No" x="0"/>
+        <item n="Business Associate - Yes" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -36663,6 +36675,24 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0">
+  <autoFilter ref="A1:I20"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Name of Covered Entity"/>
+    <tableColumn id="2" name="State"/>
+    <tableColumn id="3" name="Covered Entity Type"/>
+    <tableColumn id="4" name="Individuals Affected"/>
+    <tableColumn id="5" name="Breach Submission Date" dataDxfId="0"/>
+    <tableColumn id="6" name="Type of Breach"/>
+    <tableColumn id="7" name="Location of Breached Information"/>
+    <tableColumn id="8" name="Business Associate Present"/>
+    <tableColumn id="9" name="Web Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36928,10 +36958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36943,18 +36973,15 @@
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>497</v>
       </c>
@@ -36965,13 +36992,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="4">
-        <v>195</v>
-      </c>
-      <c r="F3" s="4">
         <v>8223673</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -36982,13 +37006,10 @@
         <v>150</v>
       </c>
       <c r="E4" s="4">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4">
         <v>346576</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -36999,13 +37020,10 @@
         <v>115</v>
       </c>
       <c r="E5" s="4">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4">
         <v>49188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -37016,13 +37034,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>53</v>
-      </c>
-      <c r="F6" s="4">
         <v>811238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>499</v>
       </c>
@@ -37033,13 +37048,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="4">
-        <v>143</v>
-      </c>
-      <c r="F7" s="4">
         <v>2773974</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>500</v>
       </c>
@@ -37050,101 +37062,54 @@
         <v>500</v>
       </c>
       <c r="E8" s="4">
-        <v>413</v>
-      </c>
-      <c r="F8" s="4">
         <v>12204649</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>497</v>
       </c>
       <c r="B10" t="s">
         <v>501</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4">
         <v>2779500</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4">
-        <v>8223673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
         <v>2926239</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="4">
-        <v>346576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>6496728</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="4">
-        <v>49188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B14" s="4">
         <v>2182</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4">
-        <v>811238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B15" s="4">
-        <v>12204649</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2773974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E16" s="4">
         <v>12204649</v>
       </c>
     </row>
@@ -37201,10 +37166,658 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B36"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4">
+        <v>195</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8223673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>346576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="4">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>49188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4">
+        <v>811238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>143</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2773974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="4">
+        <v>413</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12204649</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>550</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42766</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>702</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42785</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42885</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42929</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1176</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42937</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>4721</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42948</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>698</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43395</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>683</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43032</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>32000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43066</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>29579</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43097</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1309</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>4549</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43129</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>735</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43153</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2834</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>2471</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43157</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>12158</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43206</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>628</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>4521</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43280</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>4686</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43287</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37213,41 +37826,57 @@
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B3" t="s">
-        <v>502</v>
+      <c r="A3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>405</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>405</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -37255,23 +37884,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -37279,15 +37908,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>397</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -37295,15 +37924,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="B13" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>259</v>
+        <v>432</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -37311,15 +37940,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>432</v>
+        <v>302</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -37327,15 +37956,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B17" s="4">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -37343,23 +37972,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>494</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -37367,15 +37996,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="B22" s="4">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>494</v>
+        <v>290</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -37383,15 +38012,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -37399,89 +38028,73 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="B26" s="4">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>356</v>
+        <v>247</v>
       </c>
       <c r="B27" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
       <c r="B29" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>23</v>
+        <v>453</v>
       </c>
       <c r="B32" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B36" s="4">
         <v>413</v>
       </c>
     </row>
@@ -37490,195 +38103,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D55"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" t="s">
+        <v>500</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>503</v>
+      <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>500</v>
+      <c r="A4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
       <c r="D5" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
       <c r="D8" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
         <v>1</v>
       </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>407</v>
+        <v>136</v>
       </c>
       <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -37690,517 +38329,491 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="B20" s="4">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
         <v>3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="B22" s="4">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
       <c r="D22" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="B23" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="4">
-        <v>16</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="B25" s="4">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
       <c r="D25" s="4">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="B26" s="4">
+        <v>9</v>
+      </c>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4">
-        <v>16</v>
-      </c>
-      <c r="C27" s="4">
-        <v>3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="B28" s="4">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="B29" s="4">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="B30" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B31" s="4">
-        <v>2</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
       <c r="D31" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B32" s="4">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2</v>
+      </c>
       <c r="D32" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>142</v>
+        <v>458</v>
       </c>
       <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>458</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
       <c r="D35" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B36" s="4">
-        <v>16</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
       <c r="D36" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" s="4">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C38" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B39" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
         <v>3</v>
-      </c>
-      <c r="D39" s="4">
-        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B40" s="4">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4">
         <v>2</v>
       </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
       <c r="D41" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B42" s="4">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
       <c r="D42" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>32</v>
+        <v>423</v>
       </c>
       <c r="B43" s="4">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="B44" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>423</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C45" s="4">
+        <v>6</v>
+      </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="B46" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
       </c>
       <c r="D46" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B47" s="4">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
         <v>6</v>
-      </c>
-      <c r="D47" s="4">
-        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>209</v>
+        <v>426</v>
       </c>
       <c r="B48" s="4">
-        <v>2</v>
-      </c>
-      <c r="C48" s="4">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4">
-        <v>5</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>426</v>
+        <v>75</v>
       </c>
       <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C50" s="4">
+        <v>3</v>
+      </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4">
-        <v>8</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>331</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4">
+        <v>2</v>
+      </c>
       <c r="D51" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>75</v>
+        <v>499</v>
       </c>
       <c r="B52" s="4">
-        <v>12</v>
-      </c>
-      <c r="C52" s="4">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B53" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="B53" s="4">
+        <v>326</v>
+      </c>
       <c r="C53" s="4">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B55" s="4">
-        <v>326</v>
-      </c>
-      <c r="C55" s="4">
-        <v>87</v>
-      </c>
-      <c r="D55" s="4">
         <v>413</v>
       </c>
     </row>
@@ -38209,12 +38822,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38222,6 +38835,9 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
